--- a/results/pvalue_OFFSIDES_rare_Chem_AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_rare_Chem_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.290</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20.793</t>
+          <t>1.273</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14.798</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.056</t>
+          <t>1.218</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.637</t>
+          <t>3.554</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.004</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.887</t>
+          <t>5.978</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
